--- a/MakeMyTrip_Defect_GenerationSheet_JIRA_2.xlsx
+++ b/MakeMyTrip_Defect_GenerationSheet_JIRA_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationTesting\Assignments\Manual Assignments\Manual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0743C-7DA1-4F7F-9432-6ABAD7487C14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA1E8A8-BF24-4479-A7C6-C8D74AA1DC9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="44">
   <si>
     <t>Test Case</t>
   </si>
@@ -426,7 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,62 +629,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1446,192 +1446,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="165">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="135">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="165">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="165">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="165">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="18" t="s">
         <v>18</v>
       </c>
     </row>
